--- a/result/reg/2022_solo_all_ratio.xlsx
+++ b/result/reg/2022_solo_all_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.442</v>
+        <v>-0.598</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.542</v>
+        <v>-0.523</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.515</v>
+        <v>-0.517</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,11 +504,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.479</v>
+        <v>-0.267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.45</v>
+        <v>-0.271</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.453</v>
+        <v>-0.332</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,27 +535,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.166</v>
+        <v>-0.224</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.299</v>
+        <v>-0.189</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.326</v>
+        <v>-0.208</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -566,11 +566,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.046</v>
+        <v>-0.103</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.06900000000000001</v>
+        <v>-0.119</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.217</v>
+        <v>0.158</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.124</v>
+        <v>0.165</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.117</v>
+        <v>0.165</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.126</v>
+        <v>0.331</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.129</v>
+        <v>0.213</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.131</v>
+        <v>0.199</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -653,19 +653,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.164</v>
+        <v>0.322</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.205</v>
+        <v>0.305</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.213</v>
+        <v>0.287</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.187</v>
+        <v>0.236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.218</v>
+        <v>0.306</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.223</v>
+        <v>0.302</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -715,19 +715,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.764</v>
+        <v>0.343</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.586</v>
+        <v>0.354</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.614</v>
+        <v>0.337</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -746,34 +746,46 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.311</v>
+        <v>0.47</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.423</v>
+        <v>0.061</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -788,7 +800,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.283</v>
+        <v>-0.123</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -807,7 +819,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -826,7 +838,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.029</v>
+        <v>-0.032</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -841,15 +853,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.18</v>
+        <v>-0.054</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -860,11 +872,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.098</v>
+        <v>0.056</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -879,11 +891,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>대형마트</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.011</v>
+        <v>0.077</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -898,11 +910,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>대형마트</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08</v>
+        <v>0.025</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -917,11 +929,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.181</v>
+        <v>-0.081</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -940,7 +952,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.042</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -959,7 +971,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004</v>
+        <v>0.027</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -978,7 +990,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.073</v>
+        <v>-0.012</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -993,11 +1005,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>기타대학</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.019</v>
+        <v>0.05</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1009,25 +1021,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>기타대학</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
